--- a/doc/Task10/scrum_red.xlsx
+++ b/doc/Task10/scrum_red.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="540" windowWidth="25600" windowHeight="14560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12435" windowHeight="5550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Burndown Chart" sheetId="5" r:id="rId4"/>
     <sheet name="Blatt2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -347,6 +348,15 @@
   </si>
   <si>
     <t>wissi1</t>
+  </si>
+  <si>
+    <t>Class Organisation</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Packages and Class and navigator Creation</t>
   </si>
 </sst>
 </file>
@@ -583,32 +593,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Gut" xfId="21" builtinId="26"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="24" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -914,26 +924,26 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
@@ -944,7 +954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -955,7 +965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -966,7 +976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -977,7 +987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
@@ -988,7 +998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1021,12 +1031,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -1059,18 +1069,18 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
   </sheetData>
@@ -1100,17 +1110,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1167,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -1223,7 +1233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9</v>
       </c>
@@ -1234,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -1253,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1262,7 +1272,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1280,27 +1290,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1361,47 +1372,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
+        <v>107</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1419,24 +1424,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1448,24 +1453,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -1477,24 +1482,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1502,25 +1507,28 @@
       <c r="H7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1">
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1529,24 +1537,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -1555,134 +1563,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1"/>
-    <row r="11" spans="1:12" s="2" customFormat="1">
-      <c r="A11" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>3</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1">
-      <c r="A12" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>3.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1694,15 +1705,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1714,15 +1728,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1734,137 +1748,167 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1880,26 +1924,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:U19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="15" customWidth="1"/>
-    <col min="6" max="14" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="6.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="15" customWidth="1"/>
+    <col min="6" max="14" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:21" s="12" customFormat="1"/>
-    <row r="2" spans="4:21" s="13" customFormat="1">
+    <row r="1" spans="4:21" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
@@ -1941,7 +1985,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" spans="4:21" s="13" customFormat="1">
+    <row r="3" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="16">
         <f>'Sprint Backlog'!A2</f>
         <v>1.1000000000000001</v>
@@ -1967,13 +2011,13 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" spans="4:21" s="13" customFormat="1" ht="13.5" customHeight="1">
+    <row r="4" spans="4:21" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="16">
-        <f>'Sprint Backlog'!A3</f>
+        <f>'Sprint Backlog'!A4</f>
         <v>1.2</v>
       </c>
       <c r="E4" s="17">
-        <f>'Sprint Backlog'!H4</f>
+        <f>'Sprint Backlog'!H5</f>
         <v>5</v>
       </c>
       <c r="F4" s="17"/>
@@ -1991,13 +2035,13 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" spans="4:21" s="13" customFormat="1">
+    <row r="5" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="16">
-        <f>'Sprint Backlog'!A4</f>
+        <f>'Sprint Backlog'!A5</f>
         <v>1.3</v>
       </c>
       <c r="E5" s="17">
-        <f>'Sprint Backlog'!H5</f>
+        <f>'Sprint Backlog'!H6</f>
         <v>5</v>
       </c>
       <c r="F5" s="17"/>
@@ -2015,13 +2059,13 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
     </row>
-    <row r="6" spans="4:21" s="13" customFormat="1">
+    <row r="6" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="16">
-        <f>'Sprint Backlog'!A5</f>
+        <f>'Sprint Backlog'!A6</f>
         <v>1.4</v>
       </c>
       <c r="E6" s="17">
-        <f>'Sprint Backlog'!H6</f>
+        <f>'Sprint Backlog'!H7</f>
         <v>5</v>
       </c>
       <c r="F6" s="17"/>
@@ -2035,13 +2079,13 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="4:21" s="13" customFormat="1">
+    <row r="7" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="16">
-        <f>'Sprint Backlog'!A6</f>
+        <f>'Sprint Backlog'!A7</f>
         <v>1.5</v>
       </c>
       <c r="E7" s="17">
-        <f>'Sprint Backlog'!H11</f>
+        <f>'Sprint Backlog'!H12</f>
         <v>3</v>
       </c>
       <c r="F7" s="17"/>
@@ -2055,13 +2099,13 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="4:21" s="13" customFormat="1">
+    <row r="8" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="16">
-        <f>'Sprint Backlog'!A11</f>
-        <v>1.6</v>
+        <f>'Sprint Backlog'!A12</f>
+        <v>2</v>
       </c>
       <c r="E8" s="17">
-        <f>'Sprint Backlog'!H12</f>
+        <f>'Sprint Backlog'!H13</f>
         <v>4</v>
       </c>
       <c r="F8" s="17"/>
@@ -2075,13 +2119,13 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="4:21" s="13" customFormat="1">
+    <row r="9" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16">
-        <f>'Sprint Backlog'!A12</f>
+        <f>'Sprint Backlog'!A13</f>
         <v>2.1</v>
       </c>
       <c r="E9" s="17">
-        <f>'Sprint Backlog'!H13</f>
+        <f>'Sprint Backlog'!H14</f>
         <v>5</v>
       </c>
       <c r="F9" s="17"/>
@@ -2095,13 +2139,13 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="4:21" s="13" customFormat="1">
+    <row r="10" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="16">
-        <f>'Sprint Backlog'!A13</f>
+        <f>'Sprint Backlog'!A14</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E10" s="17">
-        <f>'Sprint Backlog'!H14</f>
+        <f>'Sprint Backlog'!H15</f>
         <v>4</v>
       </c>
       <c r="F10" s="17"/>
@@ -2115,13 +2159,13 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="4:21" s="13" customFormat="1">
+    <row r="11" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="16">
-        <f>'Sprint Backlog'!A14</f>
+        <f>'Sprint Backlog'!A15</f>
         <v>3.1</v>
       </c>
       <c r="E11" s="17">
-        <f>'Sprint Backlog'!H15</f>
+        <f>'Sprint Backlog'!H16</f>
         <v>5</v>
       </c>
       <c r="F11" s="17"/>
@@ -2135,13 +2179,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="4:21" s="13" customFormat="1">
+    <row r="12" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="16">
-        <f>'Sprint Backlog'!A15</f>
+        <f>'Sprint Backlog'!A16</f>
         <v>3.2</v>
       </c>
       <c r="E12" s="17">
-        <f>'Sprint Backlog'!H16</f>
+        <f>'Sprint Backlog'!H17</f>
         <v>5</v>
       </c>
       <c r="F12" s="17"/>
@@ -2155,13 +2199,13 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="4:21" s="13" customFormat="1">
+    <row r="13" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="16">
-        <f>'Sprint Backlog'!A16</f>
+        <f>'Sprint Backlog'!A17</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" s="17">
-        <f>'Sprint Backlog'!H17</f>
+        <f>'Sprint Backlog'!H18</f>
         <v>5</v>
       </c>
       <c r="F13" s="17"/>
@@ -2175,13 +2219,13 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="4:21" s="13" customFormat="1">
+    <row r="14" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="16">
-        <f>'Sprint Backlog'!A17</f>
+        <f>'Sprint Backlog'!A18</f>
         <v>4.2</v>
       </c>
       <c r="E14" s="17">
-        <f>'Sprint Backlog'!H18</f>
+        <f>'Sprint Backlog'!H19</f>
         <v>5</v>
       </c>
       <c r="F14" s="17"/>
@@ -2195,13 +2239,13 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="4:21">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="16">
-        <f>'Sprint Backlog'!A18</f>
+        <f>'Sprint Backlog'!A19</f>
         <v>4.3</v>
       </c>
       <c r="E15" s="17">
-        <f>'Sprint Backlog'!H19</f>
+        <f>'Sprint Backlog'!H20</f>
         <v>0</v>
       </c>
       <c r="F15" s="17"/>
@@ -2215,13 +2259,13 @@
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="4:21">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="16">
-        <f>'Sprint Backlog'!A19</f>
+        <f>'Sprint Backlog'!A20</f>
         <v>0</v>
       </c>
       <c r="E16" s="17">
-        <f>'Sprint Backlog'!H20</f>
+        <f>'Sprint Backlog'!H21</f>
         <v>0</v>
       </c>
       <c r="F16" s="17"/>
@@ -2235,13 +2279,13 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="4:15">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="16">
-        <f>'Sprint Backlog'!A20</f>
+        <f>'Sprint Backlog'!A21</f>
         <v>0</v>
       </c>
       <c r="E17" s="17">
-        <f>'Sprint Backlog'!H21</f>
+        <f>'Sprint Backlog'!H22</f>
         <v>0</v>
       </c>
       <c r="F17" s="17"/>
@@ -2255,7 +2299,7 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="4:15">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="18" t="s">
         <v>65</v>
       </c>
@@ -2264,7 +2308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="4:15">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="18" t="s">
         <v>66</v>
       </c>
@@ -2286,7 +2330,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/doc/Task10/scrum_red.xlsx
+++ b/doc/Task10/scrum_red.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12435" windowHeight="5550" activeTab="2"/>
+    <workbookView xWindow="1600" yWindow="540" windowWidth="25600" windowHeight="14560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="3" r:id="rId1"/>
@@ -13,8 +13,7 @@
     <sheet name="Burndown Chart" sheetId="5" r:id="rId4"/>
     <sheet name="Blatt2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -77,9 +76,6 @@
     <t>Database</t>
   </si>
   <si>
-    <t>save data in record</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -107,9 +103,6 @@
     <t>Model/Database</t>
   </si>
   <si>
-    <t>Create DB, Access</t>
-  </si>
-  <si>
     <t>Scrumorganisation</t>
   </si>
   <si>
@@ -233,30 +226,12 @@
     <t>search info for specific medication</t>
   </si>
   <si>
-    <t>browse medication info</t>
-  </si>
-  <si>
-    <t>get a info of medication</t>
-  </si>
-  <si>
     <t>search disease info</t>
   </si>
   <si>
-    <t>browse disease info</t>
-  </si>
-  <si>
     <t>search info for specific disease</t>
   </si>
   <si>
-    <t>get a info of disease</t>
-  </si>
-  <si>
-    <t>delite kommentar</t>
-  </si>
-  <si>
-    <t>write/add kommentar</t>
-  </si>
-  <si>
     <t>User tries to login with wrong password</t>
   </si>
   <si>
@@ -278,9 +253,6 @@
     <t>User wants to search info for specific desiase</t>
   </si>
   <si>
-    <t>edit kommentar</t>
-  </si>
-  <si>
     <t>Edit Kommentar</t>
   </si>
   <si>
@@ -350,20 +322,92 @@
     <t>wissi1</t>
   </si>
   <si>
-    <t>Class Organisation</t>
+    <t>State Patten</t>
+  </si>
+  <si>
+    <t>Navigation planung</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Java Doc comment</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
   <si>
     <t>finished</t>
   </si>
   <si>
-    <t>Packages and Class and navigator Creation</t>
+    <t>heebm2, wissi1</t>
+  </si>
+  <si>
+    <t>XML Users</t>
+  </si>
+  <si>
+    <t>Create XML-File and Schema</t>
+  </si>
+  <si>
+    <t>XML Medicaments</t>
+  </si>
+  <si>
+    <t>XML Diseases</t>
+  </si>
+  <si>
+    <t>XML Comments</t>
+  </si>
+  <si>
+    <t>load/update data</t>
+  </si>
+  <si>
+    <t>read and overridde XML-Files</t>
+  </si>
+  <si>
+    <t>search comments</t>
+  </si>
+  <si>
+    <t>write comments</t>
+  </si>
+  <si>
+    <t>search and display comment data in XML</t>
+  </si>
+  <si>
+    <t>write new comment data in XML</t>
+  </si>
+  <si>
+    <t>3.8.1</t>
+  </si>
+  <si>
+    <t>3.8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>3.6.1</t>
+  </si>
+  <si>
+    <t>3.6.2</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>check login information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +474,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -520,7 +570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,8 +598,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,9 +628,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -591,34 +640,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+  <cellStyles count="29">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Gut" xfId="21" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="24" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,135 +983,135 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>28</v>
+    <row r="1" spans="1:3" ht="20">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="5"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="B13" s="8">
         <v>0.67708333333333337</v>
@@ -1058,29 +1120,29 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="C14" s="9">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="C16" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3">
       <c r="C19" s="3"/>
     </row>
   </sheetData>
@@ -1107,20 +1169,20 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,15 +1205,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1160,15 +1222,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1177,15 +1239,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1194,68 +1256,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -1263,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1272,7 +1334,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1290,28 +1352,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,21 +1412,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12" s="2" customFormat="1">
+      <c r="A2" s="22">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
@@ -1371,48 +1434,65 @@
       <c r="H2" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1.9</v>
+      <c r="I2" s="2">
+        <f>SUM('Burndown Chart'!F3:O3)</f>
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1">
+      <c r="A3" s="22">
+        <v>1.2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>3</v>
+        <f>SUM('Burndown Chart'!F4:O4)</f>
+        <v>4.5</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1.2</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1">
+      <c r="A4" s="22">
+        <v>1.3</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1420,28 +1500,32 @@
       <c r="H4" s="2">
         <v>5</v>
       </c>
+      <c r="I4" s="2">
+        <f>SUM('Burndown Chart'!F5:O5)</f>
+        <v>5</v>
+      </c>
       <c r="L4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1.3</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A5" s="22">
+        <v>1.4</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1449,28 +1533,32 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
+      <c r="I5" s="2">
+        <f>SUM('Burndown Chart'!F6:O6)</f>
+        <v>5</v>
+      </c>
       <c r="L5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1.4</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1">
+      <c r="A6" s="22">
+        <v>1.5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -1478,28 +1566,32 @@
       <c r="H6" s="2">
         <v>5</v>
       </c>
+      <c r="I6" s="2">
+        <f>SUM('Burndown Chart'!F7:O7)</f>
+        <v>5</v>
+      </c>
       <c r="L6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1.5</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1">
+      <c r="A7" s="22">
+        <v>1.6</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1507,28 +1599,32 @@
       <c r="H7" s="2">
         <v>5</v>
       </c>
+      <c r="I7" s="2">
+        <f>SUM('Burndown Chart'!F8:O8)</f>
+        <v>4</v>
+      </c>
       <c r="L7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1.6</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1">
+      <c r="A8" s="22">
+        <v>1.7</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1536,25 +1632,32 @@
       <c r="H8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1.7</v>
+      <c r="I8" s="2">
+        <f>SUM('Burndown Chart'!F9:O9)</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1">
+      <c r="A9" s="22">
+        <v>1.8</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -1562,358 +1665,587 @@
       <c r="H9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1.8</v>
+      <c r="I9" s="2">
+        <f>SUM('Burndown Chart'!F10:O10)</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1">
+      <c r="A10" s="22">
+        <v>1.9</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <f>SUM('Burndown Chart'!F11:O11)</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="2">
+        <f>SUM('Burndown Chart'!F12:O12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1">
+      <c r="A12" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="I12" s="2">
+        <f>SUM('Burndown Chart'!F13:O13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1">
+      <c r="A13" s="22"/>
+      <c r="I13" s="2">
+        <f>SUM('Burndown Chart'!F14:O14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1">
+      <c r="A14" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
+      <c r="F14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H14" s="2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I14" s="2">
+        <f>SUM('Burndown Chart'!F15:O15)</f>
+        <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>3.1</v>
+    <row r="15" spans="1:12" s="2" customFormat="1">
+      <c r="A15" s="22">
+        <v>3.2</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H15" s="2">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SUM('Burndown Chart'!F16:O16)</f>
+        <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>3.2</v>
+    <row r="16" spans="1:12" s="2" customFormat="1">
+      <c r="A16" s="22">
+        <v>3.3</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H16" s="2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <f>SUM('Burndown Chart'!F17:O17)</f>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4.0999999999999996</v>
+    <row r="17" spans="1:12" s="2" customFormat="1">
+      <c r="A17" s="22">
+        <v>3.4</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H17" s="2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SUM('Burndown Chart'!F18:O18)</f>
+        <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>4.2</v>
+    <row r="18" spans="1:12" s="2" customFormat="1">
+      <c r="A18" s="22">
+        <v>3.5</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="2">
         <v>5</v>
       </c>
+      <c r="I18" s="2">
+        <f>SUM('Burndown Chart'!F19:O19)</f>
+        <v>0</v>
+      </c>
       <c r="L18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>4.3</v>
+    <row r="19" spans="1:12" s="2" customFormat="1">
+      <c r="A19" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="I19" s="2">
+        <f>SUM('Burndown Chart'!F20:O20)</f>
+        <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="2" customFormat="1">
+      <c r="A20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2">
+        <f>SUM('Burndown Chart'!F21:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1">
+      <c r="A21" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2">
+        <f>SUM('Burndown Chart'!F22:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1">
+      <c r="A22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <f>SUM('Burndown Chart'!F23:O23)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1">
+      <c r="A23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <f>SUM('Burndown Chart'!F24:O24)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1">
+      <c r="A24" s="22">
+        <v>3.9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <f>SUM('Burndown Chart'!F25:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A22 A23:E23 G23:H23 J23:XFD23" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1924,395 +2256,612 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U19"/>
+  <dimension ref="D1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="15" customWidth="1"/>
-    <col min="6" max="14" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="15"/>
+    <col min="1" max="1" width="6.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="15" customWidth="1"/>
+    <col min="6" max="14" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:21" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:21" s="12" customFormat="1">
+      <c r="F1" s="20">
+        <v>29.11</v>
+      </c>
+      <c r="G1" s="20">
+        <v>4.12</v>
+      </c>
+      <c r="H1" s="20">
+        <v>6.12</v>
+      </c>
+      <c r="I1" s="20">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="J1" s="20">
+        <v>13.12</v>
+      </c>
+      <c r="K1" s="20">
+        <v>18.12</v>
+      </c>
+      <c r="L1" s="20">
+        <v>20.12</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="4:21" s="13" customFormat="1">
       <c r="D2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="16">
+    <row r="3" spans="4:21" s="13" customFormat="1">
+      <c r="D3" s="23">
         <f>'Sprint Backlog'!A2</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <f>'Sprint Backlog'!H2</f>
         <v>4</v>
       </c>
-      <c r="F3" s="17">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="F3" s="16">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" spans="4:21" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="16">
-        <f>'Sprint Backlog'!A4</f>
+    <row r="4" spans="4:21" s="13" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D4" s="23">
+        <f>'Sprint Backlog'!A3</f>
         <v>1.2</v>
       </c>
-      <c r="E4" s="17">
-        <f>'Sprint Backlog'!H5</f>
+      <c r="E4" s="16">
+        <f>'Sprint Backlog'!H3</f>
         <v>5</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="16">
-        <f>'Sprint Backlog'!A5</f>
+    <row r="5" spans="4:21" s="13" customFormat="1">
+      <c r="D5" s="23">
+        <f>'Sprint Backlog'!A4</f>
         <v>1.3</v>
       </c>
-      <c r="E5" s="17">
-        <f>'Sprint Backlog'!H6</f>
+      <c r="E5" s="16">
+        <f>'Sprint Backlog'!H4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
     </row>
-    <row r="6" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="16">
+    <row r="6" spans="4:21" s="13" customFormat="1">
+      <c r="D6" s="23">
+        <f>'Sprint Backlog'!A5</f>
+        <v>1.4</v>
+      </c>
+      <c r="E6" s="16">
+        <f>'Sprint Backlog'!H5</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="4:21" s="13" customFormat="1">
+      <c r="D7" s="23">
         <f>'Sprint Backlog'!A6</f>
-        <v>1.4</v>
-      </c>
-      <c r="E6" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="16">
+        <f>'Sprint Backlog'!H6</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="4:21" s="13" customFormat="1">
+      <c r="D8" s="23">
+        <f>'Sprint Backlog'!A7</f>
+        <v>1.6</v>
+      </c>
+      <c r="E8" s="16">
         <f>'Sprint Backlog'!H7</f>
         <v>5</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="16">
-        <f>'Sprint Backlog'!A7</f>
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="4:21" s="13" customFormat="1">
+      <c r="D9" s="23">
+        <f>'Sprint Backlog'!A8</f>
+        <v>1.7</v>
+      </c>
+      <c r="E9" s="16">
+        <f>'Sprint Backlog'!H8</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="4:21" s="13" customFormat="1">
+      <c r="D10" s="23">
+        <f>'Sprint Backlog'!A9</f>
+        <v>1.8</v>
+      </c>
+      <c r="E10" s="16">
+        <f>'Sprint Backlog'!H9</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="4:21" s="13" customFormat="1">
+      <c r="D11" s="23">
+        <f>'Sprint Backlog'!A10</f>
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="16">
+        <f>'Sprint Backlog'!H10</f>
+        <v>7</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>3</v>
+      </c>
+      <c r="H11" s="16">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="4:21" s="13" customFormat="1">
+      <c r="D12" s="23">
+        <f>'Sprint Backlog'!A11</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="16">
+        <f>'Sprint Backlog'!H11</f>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="4:21" s="13" customFormat="1">
+      <c r="D13" s="23">
+        <f>'Sprint Backlog'!A12</f>
+        <v>2.1</v>
+      </c>
+      <c r="E13" s="16">
         <f>'Sprint Backlog'!H12</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="16">
-        <f>'Sprint Backlog'!A12</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="4:21" s="13" customFormat="1">
+      <c r="D14" s="23">
+        <f>'Sprint Backlog'!A13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <f>'Sprint Backlog'!H13</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="16">
-        <f>'Sprint Backlog'!A13</f>
-        <v>2.1</v>
-      </c>
-      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="4:21" s="13" customFormat="1">
+      <c r="D15" s="23">
+        <f>'Sprint Backlog'!A14</f>
+        <v>3.1</v>
+      </c>
+      <c r="E15" s="16">
         <f>'Sprint Backlog'!H14</f>
-        <v>5</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="16">
-        <f>'Sprint Backlog'!A14</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E10" s="17">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="4:21" s="13" customFormat="1">
+      <c r="D16" s="23">
+        <f>'Sprint Backlog'!A15</f>
+        <v>3.2</v>
+      </c>
+      <c r="E16" s="16">
         <f>'Sprint Backlog'!H15</f>
-        <v>4</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="16">
-        <f>'Sprint Backlog'!A15</f>
-        <v>3.1</v>
-      </c>
-      <c r="E11" s="17">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="4:15" s="13" customFormat="1">
+      <c r="D17" s="23">
+        <f>'Sprint Backlog'!A16</f>
+        <v>3.3</v>
+      </c>
+      <c r="E17" s="16">
         <f>'Sprint Backlog'!H16</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="16">
-        <f>'Sprint Backlog'!A16</f>
-        <v>3.2</v>
-      </c>
-      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="4:15" s="13" customFormat="1">
+      <c r="D18" s="23">
+        <f>'Sprint Backlog'!A17</f>
+        <v>3.4</v>
+      </c>
+      <c r="E18" s="16">
         <f>'Sprint Backlog'!H17</f>
-        <v>5</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="16">
-        <f>'Sprint Backlog'!A17</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E13" s="17">
+        <v>6</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="4:15" s="13" customFormat="1">
+      <c r="D19" s="23">
+        <f>'Sprint Backlog'!A18</f>
+        <v>3.5</v>
+      </c>
+      <c r="E19" s="16">
         <f>'Sprint Backlog'!H18</f>
         <v>5</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="4:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="16">
-        <f>'Sprint Backlog'!A18</f>
-        <v>4.2</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="4:15" s="13" customFormat="1">
+      <c r="D20" s="23" t="str">
+        <f>'Sprint Backlog'!A19</f>
+        <v>3.6.1</v>
+      </c>
+      <c r="E20" s="16">
         <f>'Sprint Backlog'!H19</f>
-        <v>5</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="16">
-        <f>'Sprint Backlog'!A19</f>
-        <v>4.3</v>
-      </c>
-      <c r="E15" s="17">
+        <v>8</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="D21" s="23" t="str">
+        <f>'Sprint Backlog'!A20</f>
+        <v>3.6.2</v>
+      </c>
+      <c r="E21" s="16">
         <f>'Sprint Backlog'!H20</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="16">
-        <f>'Sprint Backlog'!A20</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
+        <v>8</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="D22" s="23" t="str">
+        <f>'Sprint Backlog'!A21</f>
+        <v>3.7</v>
+      </c>
+      <c r="E22" s="16">
         <f>'Sprint Backlog'!H21</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="16">
-        <f>'Sprint Backlog'!A21</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
+        <v>8</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="D23" s="23" t="str">
+        <f>'Sprint Backlog'!A22</f>
+        <v>3.8.1</v>
+      </c>
+      <c r="E23" s="16">
         <f>'Sprint Backlog'!H22</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="19">
-        <f>SUM(E3:E17)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="D24" s="23" t="str">
+        <f>'Sprint Backlog'!A23</f>
+        <v>3.8.2</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="D25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="18">
+        <f>SUM(E3:E23)</f>
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15">
+      <c r="D26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="18">
+        <f>SUM(F3:O23)</f>
+        <v>48.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2330,7 +2879,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/doc/Task10/scrum_red.xlsx
+++ b/doc/Task10/scrum_red.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="540" windowWidth="25600" windowHeight="14560" activeTab="2"/>
+    <workbookView xWindow="1600" yWindow="540" windowWidth="25600" windowHeight="14560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -244,18 +244,9 @@
     <t>Desiase Info Search</t>
   </si>
   <si>
-    <t>Kommentar Add</t>
-  </si>
-  <si>
-    <t>Kommentar Delite</t>
-  </si>
-  <si>
     <t>User wants to search info for specific desiase</t>
   </si>
   <si>
-    <t>Edit Kommentar</t>
-  </si>
-  <si>
     <t>Package Diagram</t>
   </si>
   <si>
@@ -401,6 +392,30 @@
   </si>
   <si>
     <t>check login information</t>
+  </si>
+  <si>
+    <t>Comment Add</t>
+  </si>
+  <si>
+    <t>User wants add new Comment</t>
+  </si>
+  <si>
+    <t>Edit Comment</t>
+  </si>
+  <si>
+    <t>User wants edit his Comment</t>
+  </si>
+  <si>
+    <t>Comment Delete</t>
+  </si>
+  <si>
+    <t>User wants delete his Comment</t>
+  </si>
+  <si>
+    <t>Comment rating</t>
+  </si>
+  <si>
+    <t>User wants Comment rating</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1047,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>44</v>
@@ -1168,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1266,6 +1281,9 @@
       <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1296,10 @@
         <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -1289,7 +1310,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -1300,7 +1327,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -1311,7 +1344,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -1320,6 +1359,15 @@
     <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
@@ -1354,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1420,13 +1468,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
@@ -1439,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1">
@@ -1450,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -1459,7 +1507,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -1472,7 +1520,7 @@
         <v>4.5</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1">
@@ -1483,16 +1531,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1505,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
@@ -1516,16 +1564,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1538,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1">
@@ -1549,16 +1597,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -1571,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1">
@@ -1582,16 +1630,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1604,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1">
@@ -1615,16 +1663,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1637,7 +1685,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1">
@@ -1648,16 +1696,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -1670,7 +1718,7 @@
         <v>6</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1">
@@ -1681,13 +1729,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -1700,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1">
@@ -1711,13 +1759,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="H11" s="2">
         <v>0.5</v>
@@ -1738,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1751,7 +1799,7 @@
         <v>0.5</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1">
@@ -1769,16 +1817,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>7</v>
@@ -1802,16 +1850,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>7</v>
@@ -1835,16 +1883,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -1868,16 +1916,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -1901,16 +1949,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>6</v>
@@ -1928,7 +1976,7 @@
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -1943,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>6</v>
@@ -1961,7 +2009,7 @@
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1">
       <c r="A20" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -1976,7 +2024,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
@@ -1994,22 +2042,22 @@
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1">
       <c r="A21" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>6</v>
@@ -2027,22 +2075,22 @@
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1">
       <c r="A22" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
@@ -2060,22 +2108,22 @@
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1">
       <c r="A23" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
@@ -2099,11 +2147,11 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
